--- a/All Tables Data.xlsx
+++ b/All Tables Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Impact\EDM\EDM-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FADB04-3491-4CB5-9480-3BF940B7394B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC8642C-8B94-4C93-9DA4-BA97A79F9062}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="794" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
